--- a/bbb/1.1.xlsx
+++ b/bbb/1.1.xlsx
@@ -460,6 +460,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
